--- a/Estimaciones y resultados/Resumen IRF's modelos.xlsx
+++ b/Estimaciones y resultados/Resumen IRF's modelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d24c2550ecd34e/Desktop/Cato/Tesis/Tesis-paper/Estimaciones y resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{EC60C8D8-DB76-4888-961E-90C249290D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B56CED8C-54F7-4E8E-8512-81744EF43E06}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{EC60C8D8-DB76-4888-961E-90C249290D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8160ABBD-7245-4716-86A0-2E3F5023B1DE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="622" activeTab="3" xr2:uid="{3F4364E4-0F10-48D4-9639-876B66A2BD5E}"/>
   </bookViews>
@@ -5266,7 +5266,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>BZSCORE</a:t>
             </a:r>
           </a:p>
@@ -5645,6 +5645,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+          <c:min val="-1.1000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6284,9 +6286,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>IPC</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6663,6 +6666,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.45"/>
+          <c:min val="-1.1000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6793,9 +6798,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>INVEST</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7172,6 +7178,7 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7302,9 +7309,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>BANKCON</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7675,12 +7683,16 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7811,7 +7823,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>CONSUM</a:t>
             </a:r>
           </a:p>
@@ -8190,6 +8202,7 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8320,9 +8333,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-PE"/>
+              <a:rPr lang="es-PE" sz="1600" b="1"/>
               <a:t>PBI</a:t>
             </a:r>
+            <a:endParaRPr lang="es-PE" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -8699,6 +8713,8 @@
         <c:axId val="1682061183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.55000000000000004"/>
+          <c:min val="-0.75000000000000011"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -58289,7 +58305,7 @@
   <dimension ref="B2:O71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="Q78" sqref="Q78"/>
+      <selection activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Estimaciones y resultados/Resumen IRF's modelos.xlsx
+++ b/Estimaciones y resultados/Resumen IRF's modelos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30d24c2550ecd34e/Desktop/Cato/Tesis/Tesis-paper/Estimaciones y resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{EC60C8D8-DB76-4888-961E-90C249290D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8160ABBD-7245-4716-86A0-2E3F5023B1DE}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{EC60C8D8-DB76-4888-961E-90C249290D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BE54B6A-EEC3-41AE-B093-5A1F3DB26A97}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="622" activeTab="3" xr2:uid="{3F4364E4-0F10-48D4-9639-876B66A2BD5E}"/>
   </bookViews>
@@ -94,8 +94,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -123,8 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -51969,16 +51978,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>344330</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>471330</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>147901</xdr:rowOff>
+      <xdr:rowOff>147900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>146540</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>29307</xdr:rowOff>
+      <xdr:rowOff>29306</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -52007,16 +52016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457518</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>86468</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47211</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>145084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>282029</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>39077</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>566616</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -52045,16 +52054,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>461020</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>103762</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>265635</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>64685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285531</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>156307</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>781538</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>39077</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -52083,16 +52092,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457517</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>252363</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>156306</xdr:rowOff>
+      <xdr:rowOff>146536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>283307</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:rowOff>19538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -52121,16 +52130,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>344332</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>471333</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>82790</xdr:rowOff>
+      <xdr:rowOff>73020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>156308</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214923</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>48846</xdr:rowOff>
+      <xdr:rowOff>39076</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -52159,16 +52168,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>341443</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>112275</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>48367</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>73198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>165953</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>185614</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>566615</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -58304,8 +58313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8816CDA-390B-44A3-9077-A7F07DCAF076}">
   <dimension ref="B2:O71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="Q63" sqref="Q63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58530,13 +58539,13 @@
       <c r="L9">
         <v>5</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>3.9026178256450147E-2</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>0.16168759442295619</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>0.29543648260410516</v>
       </c>
     </row>
@@ -59268,13 +59277,13 @@
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>1.0289608517512518E-2</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>0.12524801403882668</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>0.24320557272825361</v>
       </c>
       <c r="G33">
